--- a/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Jag1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H2">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I2">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J2">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>60.54948451202096</v>
+        <v>69.1892208921105</v>
       </c>
       <c r="R2">
-        <v>60.54948451202096</v>
+        <v>276.756883568442</v>
       </c>
       <c r="S2">
-        <v>0.009256553833444606</v>
+        <v>0.009219750362383419</v>
       </c>
       <c r="T2">
-        <v>0.009256553833444606</v>
+        <v>0.006968580295892479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H3">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I3">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J3">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>39.14478830245799</v>
+        <v>41.50320656877551</v>
       </c>
       <c r="R3">
-        <v>39.14478830245799</v>
+        <v>249.019239412653</v>
       </c>
       <c r="S3">
-        <v>0.005984292734128201</v>
+        <v>0.005530474239610559</v>
       </c>
       <c r="T3">
-        <v>0.005984292734128201</v>
+        <v>0.006270162254663499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H4">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I4">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J4">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>120.6791018688302</v>
+        <v>0.964686223026</v>
       </c>
       <c r="R4">
-        <v>120.6791018688302</v>
+        <v>5.788117338156001</v>
       </c>
       <c r="S4">
-        <v>0.01844892011919273</v>
+        <v>0.0001285484362976031</v>
       </c>
       <c r="T4">
-        <v>0.01844892011919273</v>
+        <v>0.0001457414894723393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.23761554217</v>
+        <v>15.2630565</v>
       </c>
       <c r="H5">
-        <v>15.23761554217</v>
+        <v>30.526113</v>
       </c>
       <c r="I5">
-        <v>0.2478663190620499</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J5">
-        <v>0.2478663190620499</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N5">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O5">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P5">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q5">
-        <v>1400.983570584333</v>
+        <v>2.1534086770445</v>
       </c>
       <c r="R5">
-        <v>1400.983570584333</v>
+        <v>12.920452062267</v>
       </c>
       <c r="S5">
-        <v>0.2141765523752843</v>
+        <v>0.0002869506286463261</v>
       </c>
       <c r="T5">
-        <v>0.2141765523752843</v>
+        <v>0.0003253296051545939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.47650306839706</v>
+        <v>15.2630565</v>
       </c>
       <c r="H6">
-        <v>6.47650306839706</v>
+        <v>30.526113</v>
       </c>
       <c r="I6">
-        <v>0.105351586769923</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J6">
-        <v>0.105351586769923</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N6">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O6">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P6">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q6">
-        <v>25.73558317879162</v>
+        <v>232.031549106492</v>
       </c>
       <c r="R6">
-        <v>25.73558317879162</v>
+        <v>1392.189294638952</v>
       </c>
       <c r="S6">
-        <v>0.00393434912038403</v>
+        <v>0.03091916531759794</v>
       </c>
       <c r="T6">
-        <v>0.00393434912038403</v>
+        <v>0.03505453147789276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.47650306839706</v>
+        <v>15.2630565</v>
       </c>
       <c r="H7">
-        <v>6.47650306839706</v>
+        <v>30.526113</v>
       </c>
       <c r="I7">
-        <v>0.105351586769923</v>
+        <v>0.233863797955522</v>
       </c>
       <c r="J7">
-        <v>0.105351586769923</v>
+        <v>0.1906936114921842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N7">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O7">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P7">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q7">
-        <v>16.63786180003058</v>
+        <v>1409.178763091195</v>
       </c>
       <c r="R7">
-        <v>16.63786180003058</v>
+        <v>5636.715052364782</v>
       </c>
       <c r="S7">
-        <v>0.002543527243321436</v>
+        <v>0.1877789089709861</v>
       </c>
       <c r="T7">
-        <v>0.002543527243321436</v>
+        <v>0.1419292663691085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H8">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I8">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J8">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N8">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O8">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P8">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q8">
-        <v>51.29270858566201</v>
+        <v>31.70072181738</v>
       </c>
       <c r="R8">
-        <v>51.29270858566201</v>
+        <v>190.20433090428</v>
       </c>
       <c r="S8">
-        <v>0.007841416357427541</v>
+        <v>0.004224252530887111</v>
       </c>
       <c r="T8">
-        <v>0.007841416357427541</v>
+        <v>0.004789236442623814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.47650306839706</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H9">
-        <v>6.47650306839706</v>
+        <v>20.97942</v>
       </c>
       <c r="I9">
-        <v>0.105351586769923</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J9">
-        <v>0.105351586769923</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N9">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P9">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q9">
-        <v>595.4655023650206</v>
+        <v>19.01570199811333</v>
       </c>
       <c r="R9">
-        <v>595.4655023650206</v>
+        <v>171.14131798302</v>
       </c>
       <c r="S9">
-        <v>0.09103229404879003</v>
+        <v>0.002533921080878537</v>
       </c>
       <c r="T9">
-        <v>0.09103229404879003</v>
+        <v>0.00430924066253481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H10">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I10">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J10">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N10">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O10">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P10">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q10">
-        <v>21.26535503013373</v>
+        <v>0.4419944205599999</v>
       </c>
       <c r="R10">
-        <v>21.26535503013373</v>
+        <v>3.977949785039999</v>
       </c>
       <c r="S10">
-        <v>0.003250959198251561</v>
+        <v>5.889758789861126E-05</v>
       </c>
       <c r="T10">
-        <v>0.003250959198251561</v>
+        <v>0.0001001625041178936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H11">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I11">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J11">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N11">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O11">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P11">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q11">
-        <v>13.74789277794648</v>
+        <v>0.9866364810866665</v>
       </c>
       <c r="R11">
-        <v>13.74789277794648</v>
+        <v>8.879728329779997</v>
       </c>
       <c r="S11">
-        <v>0.002101720776338256</v>
+        <v>0.0001314733991328518</v>
       </c>
       <c r="T11">
-        <v>0.002101720776338256</v>
+        <v>0.000223586488884857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H12">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I12">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J12">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N12">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O12">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P12">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q12">
-        <v>42.38325010758534</v>
+        <v>106.31088912752</v>
       </c>
       <c r="R12">
-        <v>42.38325010758534</v>
+        <v>956.7980021476799</v>
       </c>
       <c r="S12">
-        <v>0.006479375331086795</v>
+        <v>0.01416636646461387</v>
       </c>
       <c r="T12">
-        <v>0.006479375331086795</v>
+        <v>0.02409162734796706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.35154521840063</v>
+        <v>6.993139999999999</v>
       </c>
       <c r="H13">
-        <v>5.35154521840063</v>
+        <v>20.97942</v>
       </c>
       <c r="I13">
-        <v>0.08705219073864195</v>
+        <v>0.1071503784340102</v>
       </c>
       <c r="J13">
-        <v>0.08705219073864195</v>
+        <v>0.1310563636716983</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.942441171791</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N13">
-        <v>91.942441171791</v>
+        <v>184.652237</v>
       </c>
       <c r="O13">
-        <v>0.8640809012928788</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P13">
-        <v>0.8640809012928788</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q13">
-        <v>492.0341314209793</v>
+        <v>645.6494723270901</v>
       </c>
       <c r="R13">
-        <v>492.0341314209793</v>
+        <v>3873.89683396254</v>
       </c>
       <c r="S13">
-        <v>0.07522013543296534</v>
+        <v>0.08603546737059917</v>
       </c>
       <c r="T13">
-        <v>0.07522013543296534</v>
+        <v>0.09754251022556991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H14">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I14">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J14">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N14">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O14">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P14">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q14">
-        <v>7.850872111986832</v>
+        <v>36.376249710013</v>
       </c>
       <c r="R14">
-        <v>7.850872111986832</v>
+        <v>218.257498260078</v>
       </c>
       <c r="S14">
-        <v>0.001200208737196885</v>
+        <v>0.00484728599515542</v>
       </c>
       <c r="T14">
-        <v>0.001200208737196885</v>
+        <v>0.005495599177860509</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H15">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I15">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J15">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N15">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O15">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P15">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q15">
-        <v>5.075530027879643</v>
+        <v>21.82032094661411</v>
       </c>
       <c r="R15">
-        <v>5.075530027879643</v>
+        <v>196.382888519527</v>
       </c>
       <c r="S15">
-        <v>0.0007759259606414179</v>
+        <v>0.002907648176420033</v>
       </c>
       <c r="T15">
-        <v>0.0007759259606414179</v>
+        <v>0.00494480899532601</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H16">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I16">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J16">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N16">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O16">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P16">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q16">
-        <v>15.64730406868321</v>
+        <v>0.507184016356</v>
       </c>
       <c r="R16">
-        <v>15.64730406868321</v>
+        <v>4.564656147204</v>
       </c>
       <c r="S16">
-        <v>0.002392094889450094</v>
+        <v>6.758437164489758E-05</v>
       </c>
       <c r="T16">
-        <v>0.002392094889450094</v>
+        <v>0.0001149354352989882</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.97571576169983</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H17">
-        <v>1.97571576169983</v>
+        <v>24.073667</v>
       </c>
       <c r="I17">
-        <v>0.0321384531595598</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J17">
-        <v>0.0321384531595598</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N17">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O17">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P17">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q17">
-        <v>181.6521301922669</v>
+        <v>1.132155135639222</v>
       </c>
       <c r="R17">
-        <v>181.6521301922669</v>
+        <v>10.189396220753</v>
       </c>
       <c r="S17">
-        <v>0.0277702235722714</v>
+        <v>0.0001508643627937457</v>
       </c>
       <c r="T17">
-        <v>0.0277702235722714</v>
+        <v>0.0002565631785394091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.0551823584393</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H18">
-        <v>12.0551823584393</v>
+        <v>24.073667</v>
       </c>
       <c r="I18">
-        <v>0.1960985082304142</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J18">
-        <v>0.1960985082304142</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N18">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O18">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P18">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q18">
-        <v>47.90349746532312</v>
+        <v>121.9906433700187</v>
       </c>
       <c r="R18">
-        <v>47.90349746532312</v>
+        <v>1097.915790330168</v>
       </c>
       <c r="S18">
-        <v>0.007323287830964238</v>
+        <v>0.01625575868489604</v>
       </c>
       <c r="T18">
-        <v>0.007323287830964238</v>
+        <v>0.02764489267401349</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.0551823584393</v>
+        <v>8.024555666666666</v>
       </c>
       <c r="H19">
-        <v>12.0551823584393</v>
+        <v>24.073667</v>
       </c>
       <c r="I19">
-        <v>0.1960985082304142</v>
+        <v>0.122953948647977</v>
       </c>
       <c r="J19">
-        <v>0.1960985082304142</v>
+        <v>0.1503858189246111</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N19">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O19">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P19">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q19">
-        <v>30.9692523782779</v>
+        <v>740.8760773905132</v>
       </c>
       <c r="R19">
-        <v>30.9692523782779</v>
+        <v>4445.25646434308</v>
       </c>
       <c r="S19">
-        <v>0.004734450741098369</v>
+        <v>0.09872480705706686</v>
       </c>
       <c r="T19">
-        <v>0.004734450741098369</v>
+        <v>0.1119290194635726</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.0551823584393</v>
+        <v>2.074084</v>
       </c>
       <c r="H20">
-        <v>12.0551823584393</v>
+        <v>6.222252</v>
       </c>
       <c r="I20">
-        <v>0.1960985082304142</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J20">
-        <v>0.1960985082304142</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N20">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O20">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P20">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q20">
-        <v>95.47481860631328</v>
+        <v>9.402065439828</v>
       </c>
       <c r="R20">
-        <v>95.47481860631328</v>
+        <v>56.412392638968</v>
       </c>
       <c r="S20">
-        <v>0.01459579392442626</v>
+        <v>0.001252864176360328</v>
       </c>
       <c r="T20">
-        <v>0.01459579392442626</v>
+        <v>0.001420431834320916</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.0551823584393</v>
+        <v>2.074084</v>
       </c>
       <c r="H21">
-        <v>12.0551823584393</v>
+        <v>6.222252</v>
       </c>
       <c r="I21">
-        <v>0.1960985082304142</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J21">
-        <v>0.1960985082304142</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N21">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O21">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P21">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q21">
-        <v>1108.382894806018</v>
+        <v>5.639836076934667</v>
       </c>
       <c r="R21">
-        <v>1108.382894806018</v>
+        <v>50.758524692412</v>
       </c>
       <c r="S21">
-        <v>0.1694449757339253</v>
+        <v>0.0007515315253395299</v>
       </c>
       <c r="T21">
-        <v>0.1694449757339253</v>
+        <v>0.001278070667870635</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H22">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I22">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J22">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N22">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O22">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P22">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q22">
-        <v>80.97803217400792</v>
+        <v>0.131090405136</v>
       </c>
       <c r="R22">
-        <v>80.97803217400792</v>
+        <v>1.179813646224</v>
       </c>
       <c r="S22">
-        <v>0.01237958539508787</v>
+        <v>1.746833964415173E-05</v>
       </c>
       <c r="T22">
-        <v>0.01237958539508787</v>
+        <v>2.970703392050741E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H23">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I23">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J23">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N23">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O23">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P23">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q23">
-        <v>52.35169138346428</v>
+        <v>0.2926249065853333</v>
       </c>
       <c r="R23">
-        <v>52.35169138346428</v>
+        <v>2.633624159268</v>
       </c>
       <c r="S23">
-        <v>0.008003309251405893</v>
+        <v>3.89934812640762E-05</v>
       </c>
       <c r="T23">
-        <v>0.008003309251405893</v>
+        <v>6.631315249119278E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H24">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I24">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J24">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N24">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O24">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P24">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q24">
-        <v>161.3945398977656</v>
+        <v>31.530573414112</v>
       </c>
       <c r="R24">
-        <v>161.3945398977656</v>
+        <v>283.775160727008</v>
       </c>
       <c r="S24">
-        <v>0.02467332726327495</v>
+        <v>0.004201579551159022</v>
       </c>
       <c r="T24">
-        <v>0.02467332726327495</v>
+        <v>0.007145296507202904</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.3785735183928</v>
+        <v>2.074084</v>
       </c>
       <c r="H25">
-        <v>20.3785735183928</v>
+        <v>6.222252</v>
       </c>
       <c r="I25">
-        <v>0.3314929420394111</v>
+        <v>0.03177955617990281</v>
       </c>
       <c r="J25">
-        <v>0.3314929420394111</v>
+        <v>0.03886979339604968</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>91.942441171791</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N25">
-        <v>91.942441171791</v>
+        <v>184.652237</v>
       </c>
       <c r="O25">
-        <v>0.8640809012928788</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P25">
-        <v>0.8640809012928788</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q25">
-        <v>1873.655796879848</v>
+        <v>191.492125162954</v>
       </c>
       <c r="R25">
-        <v>1873.655796879848</v>
+        <v>1148.952750977724</v>
       </c>
       <c r="S25">
-        <v>0.2864367201296424</v>
+        <v>0.0255171191061357</v>
       </c>
       <c r="T25">
-        <v>0.2864367201296424</v>
+        <v>0.02892997420024352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12.458139</v>
+      </c>
+      <c r="H26">
+        <v>37.374417</v>
+      </c>
+      <c r="I26">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J26">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.533117</v>
+      </c>
+      <c r="N26">
+        <v>9.066234</v>
+      </c>
+      <c r="O26">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P26">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q26">
+        <v>56.474201689263</v>
+      </c>
+      <c r="R26">
+        <v>338.845210135578</v>
+      </c>
+      <c r="S26">
+        <v>0.007525421370213298</v>
+      </c>
+      <c r="T26">
+        <v>0.008531928905480659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>12.458139</v>
+      </c>
+      <c r="H27">
+        <v>37.374417</v>
+      </c>
+      <c r="I27">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J27">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N27">
+        <v>8.157581</v>
+      </c>
+      <c r="O27">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P27">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q27">
+        <v>33.876092667253</v>
+      </c>
+      <c r="R27">
+        <v>304.884834005277</v>
+      </c>
+      <c r="S27">
+        <v>0.004514129710060868</v>
+      </c>
+      <c r="T27">
+        <v>0.007676826026407417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>12.458139</v>
+      </c>
+      <c r="H28">
+        <v>37.374417</v>
+      </c>
+      <c r="I28">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J28">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.063204</v>
+      </c>
+      <c r="N28">
+        <v>0.189612</v>
+      </c>
+      <c r="O28">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P28">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q28">
+        <v>0.787404217356</v>
+      </c>
+      <c r="R28">
+        <v>7.086637956204</v>
+      </c>
+      <c r="S28">
+        <v>0.0001049248744920904</v>
+      </c>
+      <c r="T28">
+        <v>0.0001784374971599011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>12.458139</v>
+      </c>
+      <c r="H29">
+        <v>37.374417</v>
+      </c>
+      <c r="I29">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J29">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P29">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q29">
+        <v>1.757673151667</v>
+      </c>
+      <c r="R29">
+        <v>15.819058365003</v>
+      </c>
+      <c r="S29">
+        <v>0.0002342172301998169</v>
+      </c>
+      <c r="T29">
+        <v>0.0003983148567095045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>12.458139</v>
+      </c>
+      <c r="H30">
+        <v>37.374417</v>
+      </c>
+      <c r="I30">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J30">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.202168</v>
+      </c>
+      <c r="N30">
+        <v>45.606504</v>
+      </c>
+      <c r="O30">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P30">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q30">
+        <v>189.390722045352</v>
+      </c>
+      <c r="R30">
+        <v>1704.516498408168</v>
+      </c>
+      <c r="S30">
+        <v>0.02523709843376484</v>
+      </c>
+      <c r="T30">
+        <v>0.04291875212525061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>12.458139</v>
+      </c>
+      <c r="H31">
+        <v>37.374417</v>
+      </c>
+      <c r="I31">
+        <v>0.190886255449412</v>
+      </c>
+      <c r="J31">
+        <v>0.233474289869296</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N31">
+        <v>184.652237</v>
+      </c>
+      <c r="O31">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P31">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q31">
+        <v>1150.211617603472</v>
+      </c>
+      <c r="R31">
+        <v>6901.26970562083</v>
+      </c>
+      <c r="S31">
+        <v>0.1532704638306811</v>
+      </c>
+      <c r="T31">
+        <v>0.1737700304582879</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>20.45175</v>
+      </c>
+      <c r="H32">
+        <v>40.9035</v>
+      </c>
+      <c r="I32">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J32">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.533117</v>
+      </c>
+      <c r="N32">
+        <v>9.066234</v>
+      </c>
+      <c r="O32">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P32">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q32">
+        <v>92.71017560475001</v>
+      </c>
+      <c r="R32">
+        <v>370.840702419</v>
+      </c>
+      <c r="S32">
+        <v>0.01235401503452962</v>
+      </c>
+      <c r="T32">
+        <v>0.009337557131267844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>20.45175</v>
+      </c>
+      <c r="H33">
+        <v>40.9035</v>
+      </c>
+      <c r="I33">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J33">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N33">
+        <v>8.157581</v>
+      </c>
+      <c r="O33">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P33">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q33">
+        <v>55.61226907225001</v>
+      </c>
+      <c r="R33">
+        <v>333.6736144335</v>
+      </c>
+      <c r="S33">
+        <v>0.007410565277666059</v>
+      </c>
+      <c r="T33">
+        <v>0.008401711078761597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>20.45175</v>
+      </c>
+      <c r="H34">
+        <v>40.9035</v>
+      </c>
+      <c r="I34">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J34">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.063204</v>
+      </c>
+      <c r="N34">
+        <v>0.189612</v>
+      </c>
+      <c r="O34">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P34">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q34">
+        <v>1.292632407</v>
+      </c>
+      <c r="R34">
+        <v>7.755794442</v>
+      </c>
+      <c r="S34">
+        <v>0.0001722486241238446</v>
+      </c>
+      <c r="T34">
+        <v>0.0001952864753737835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>20.45175</v>
+      </c>
+      <c r="H35">
+        <v>40.9035</v>
+      </c>
+      <c r="I35">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J35">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P35">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q35">
+        <v>2.885462417749999</v>
+      </c>
+      <c r="R35">
+        <v>17.3127745065</v>
+      </c>
+      <c r="S35">
+        <v>0.0003844998227856589</v>
+      </c>
+      <c r="T35">
+        <v>0.0004359257762179198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>20.45175</v>
+      </c>
+      <c r="H36">
+        <v>40.9035</v>
+      </c>
+      <c r="I36">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J36">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.202168</v>
+      </c>
+      <c r="N36">
+        <v>45.606504</v>
+      </c>
+      <c r="O36">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P36">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q36">
+        <v>310.910939394</v>
+      </c>
+      <c r="R36">
+        <v>1865.465636364</v>
+      </c>
+      <c r="S36">
+        <v>0.0414301709021508</v>
+      </c>
+      <c r="T36">
+        <v>0.04697135951458957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>20.45175</v>
+      </c>
+      <c r="H37">
+        <v>40.9035</v>
+      </c>
+      <c r="I37">
+        <v>0.3133660633331761</v>
+      </c>
+      <c r="J37">
+        <v>0.2555201226461606</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N37">
+        <v>184.652237</v>
+      </c>
+      <c r="O37">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P37">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q37">
+        <v>1888.230694032375</v>
+      </c>
+      <c r="R37">
+        <v>7552.922776129501</v>
+      </c>
+      <c r="S37">
+        <v>0.2516145636719201</v>
+      </c>
+      <c r="T37">
+        <v>0.1901782826699498</v>
       </c>
     </row>
   </sheetData>
